--- a/PAGEIND.NS.xlsx
+++ b/PAGEIND.NS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E29316-510C-49BE-867B-4756BE04E42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAE414C-482E-4183-ADD6-3823DE1B4231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{3F5AB981-52D7-4962-8213-D73964D39B0A}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{3F5AB981-52D7-4962-8213-D73964D39B0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t xml:space="preserve">Pages Industry </t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>EV</t>
-  </si>
-  <si>
-    <t>FQ225</t>
   </si>
   <si>
     <t>Notes</t>
@@ -158,21 +155,43 @@
   <si>
     <t>Tax Expense</t>
   </si>
+  <si>
+    <t>FQ126</t>
+  </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>Q226</t>
+  </si>
+  <si>
+    <t>Q326</t>
+  </si>
+  <si>
+    <t>Q426</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0;\(#,##0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -229,27 +248,31 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -588,7 +611,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -604,13 +627,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="3">
-        <v>47278</v>
+        <v>41240</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -618,10 +641,10 @@
         <v>4</v>
       </c>
       <c r="H3" s="4">
-        <v>11.1539</v>
+        <v>11.154111</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>9</v>
+      <c r="I3" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -633,7 +656,7 @@
       </c>
       <c r="H4" s="3">
         <f>+H2*H3</f>
-        <v>527334.08420000004</v>
+        <v>459995.53764</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -644,11 +667,11 @@
         <v>6</v>
       </c>
       <c r="H5" s="3">
-        <f>12016.77+47621.25</f>
-        <v>59638.020000000004</v>
+        <f>23309.57+63.06+21988.15</f>
+        <v>45360.78</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>9</v>
+      <c r="I5" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -656,10 +679,10 @@
         <v>7</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>52633.11</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>9</v>
+      <c r="I6" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -668,25 +691,25 @@
       </c>
       <c r="H7" s="3">
         <f>+H4-H5+H6</f>
-        <v>467696.06420000002</v>
+        <v>467267.86763999995</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -703,10 +726,10 @@
   <dimension ref="A1:BV551"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -716,1353 +739,500 @@
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="12">
+        <v>127751.79</v>
+      </c>
+      <c r="G3" s="12">
+        <v>109807.02</v>
+      </c>
+      <c r="H3" s="12">
+        <v>124627.04</v>
+      </c>
+      <c r="K3" s="12">
+        <v>131656.10999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3">
-        <v>127751.79</v>
+      <c r="D4" s="12">
+        <v>1289.9100000000001</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3">
-        <v>124627.04</v>
+      <c r="G4" s="12">
+        <v>2013.47</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
-      <c r="AX3" s="3"/>
-      <c r="AY3" s="3"/>
-      <c r="AZ3" s="3"/>
-      <c r="BA3" s="3"/>
-      <c r="BB3" s="3"/>
-      <c r="BC3" s="3"/>
-      <c r="BD3" s="3"/>
-      <c r="BE3" s="3"/>
-      <c r="BF3" s="3"/>
-      <c r="BG3" s="3"/>
-      <c r="BH3" s="3"/>
-      <c r="BI3" s="3"/>
-      <c r="BJ3" s="3"/>
-      <c r="BK3" s="3"/>
-      <c r="BL3" s="3"/>
-      <c r="BM3" s="3"/>
-      <c r="BN3" s="3"/>
-      <c r="BO3" s="3"/>
-      <c r="BP3" s="3"/>
-      <c r="BQ3" s="3"/>
-      <c r="BR3" s="3"/>
-      <c r="BS3" s="3"/>
-      <c r="BT3" s="3"/>
-      <c r="BU3" s="3"/>
-      <c r="BV3" s="3"/>
-    </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+      <c r="H4" s="12">
+        <v>1455.15</v>
+      </c>
+      <c r="K4" s="12">
+        <v>1480.81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3">
-        <v>1289.9100000000001</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3">
-        <v>1455.15</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="3"/>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3"/>
-      <c r="AX4" s="3"/>
-      <c r="AY4" s="3"/>
-      <c r="AZ4" s="3"/>
-      <c r="BA4" s="3"/>
-      <c r="BB4" s="3"/>
-      <c r="BC4" s="3"/>
-      <c r="BD4" s="3"/>
-      <c r="BE4" s="3"/>
-      <c r="BF4" s="3"/>
-      <c r="BG4" s="3"/>
-      <c r="BH4" s="3"/>
-      <c r="BI4" s="3"/>
-      <c r="BJ4" s="3"/>
-      <c r="BK4" s="3"/>
-      <c r="BL4" s="3"/>
-      <c r="BM4" s="3"/>
-      <c r="BN4" s="3"/>
-      <c r="BO4" s="3"/>
-      <c r="BP4" s="3"/>
-      <c r="BQ4" s="3"/>
-      <c r="BR4" s="3"/>
-      <c r="BS4" s="3"/>
-      <c r="BT4" s="3"/>
-      <c r="BU4" s="3"/>
-      <c r="BV4" s="3"/>
-    </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="C5" s="13">
         <f t="shared" ref="C5:G5" si="0">+C3+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="13">
         <f t="shared" si="0"/>
         <v>129041.7</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>111820.49</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="13">
         <f>+H3+H4</f>
         <v>126082.18999999999</v>
       </c>
-      <c r="I5" s="10">
-        <f t="shared" ref="I5:J5" si="1">+I3+I4</f>
+      <c r="I5" s="13">
+        <f t="shared" ref="I5:N5" si="1">+I3+I4</f>
         <v>0</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="3"/>
-      <c r="AS5" s="3"/>
-      <c r="AT5" s="3"/>
-      <c r="AU5" s="3"/>
-      <c r="AV5" s="3"/>
-      <c r="AW5" s="3"/>
-      <c r="AX5" s="3"/>
-      <c r="AY5" s="3"/>
-      <c r="AZ5" s="3"/>
-      <c r="BA5" s="3"/>
-      <c r="BB5" s="3"/>
-      <c r="BC5" s="3"/>
-      <c r="BD5" s="3"/>
-      <c r="BE5" s="3"/>
-      <c r="BF5" s="3"/>
-      <c r="BG5" s="3"/>
-      <c r="BH5" s="3"/>
-      <c r="BI5" s="3"/>
-      <c r="BJ5" s="3"/>
-      <c r="BK5" s="3"/>
-      <c r="BL5" s="3"/>
-      <c r="BM5" s="3"/>
-      <c r="BN5" s="3"/>
-      <c r="BO5" s="3"/>
-      <c r="BP5" s="3"/>
-      <c r="BQ5" s="3"/>
-      <c r="BR5" s="3"/>
-      <c r="BS5" s="3"/>
-      <c r="BT5" s="3"/>
-      <c r="BU5" s="3"/>
-      <c r="BV5" s="3"/>
-    </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="K5" s="13">
+        <f t="shared" si="1"/>
+        <v>133136.91999999998</v>
+      </c>
+      <c r="L5" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="12">
+        <v>26034.31</v>
+      </c>
+      <c r="G6" s="12">
+        <v>26927.67</v>
+      </c>
+      <c r="H6" s="12">
+        <v>27632.05</v>
+      </c>
+      <c r="K6" s="12">
+        <v>26347.97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
-        <v>26034.31</v>
+      <c r="D7" s="12">
+        <v>13424.38</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3">
-        <v>27632.05</v>
+      <c r="G7" s="12">
+        <v>20729.310000000001</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3"/>
-      <c r="AU6" s="3"/>
-      <c r="AV6" s="3"/>
-      <c r="AW6" s="3"/>
-      <c r="AX6" s="3"/>
-      <c r="AY6" s="3"/>
-      <c r="AZ6" s="3"/>
-      <c r="BA6" s="3"/>
-      <c r="BB6" s="3"/>
-      <c r="BC6" s="3"/>
-      <c r="BD6" s="3"/>
-      <c r="BE6" s="3"/>
-      <c r="BF6" s="3"/>
-      <c r="BG6" s="3"/>
-      <c r="BH6" s="3"/>
-      <c r="BI6" s="3"/>
-      <c r="BJ6" s="3"/>
-      <c r="BK6" s="3"/>
-      <c r="BL6" s="3"/>
-      <c r="BM6" s="3"/>
-      <c r="BN6" s="3"/>
-      <c r="BO6" s="3"/>
-      <c r="BP6" s="3"/>
-      <c r="BQ6" s="3"/>
-      <c r="BR6" s="3"/>
-      <c r="BS6" s="3"/>
-      <c r="BT6" s="3"/>
-      <c r="BU6" s="3"/>
-      <c r="BV6" s="3"/>
-    </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
+      <c r="H7" s="12">
+        <v>17345.29</v>
+      </c>
+      <c r="K7" s="12">
+        <v>23350.62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
-        <v>13424.38</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3">
-        <v>17345.29</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-      <c r="AU7" s="3"/>
-      <c r="AV7" s="3"/>
-      <c r="AW7" s="3"/>
-      <c r="AX7" s="3"/>
-      <c r="AY7" s="3"/>
-      <c r="AZ7" s="3"/>
-      <c r="BA7" s="3"/>
-      <c r="BB7" s="3"/>
-      <c r="BC7" s="3"/>
-      <c r="BD7" s="3"/>
-      <c r="BE7" s="3"/>
-      <c r="BF7" s="3"/>
-      <c r="BG7" s="3"/>
-      <c r="BH7" s="3"/>
-      <c r="BI7" s="3"/>
-      <c r="BJ7" s="3"/>
-      <c r="BK7" s="3"/>
-      <c r="BL7" s="3"/>
-      <c r="BM7" s="3"/>
-      <c r="BN7" s="3"/>
-      <c r="BO7" s="3"/>
-      <c r="BP7" s="3"/>
-      <c r="BQ7" s="3"/>
-      <c r="BR7" s="3"/>
-      <c r="BS7" s="3"/>
-      <c r="BT7" s="3"/>
-      <c r="BU7" s="3"/>
-      <c r="BV7" s="3"/>
-    </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="C8" s="12">
         <f t="shared" ref="C8:G8" si="2">+C5-C6-C7</f>
         <v>0</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="12">
         <f t="shared" si="2"/>
         <v>89583.01</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>64163.510000000009</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="12">
         <f>+H5-H6-H7</f>
         <v>81104.849999999977</v>
       </c>
-      <c r="I8" s="3">
-        <f t="shared" ref="I8:J8" si="3">+I5-I6-I7</f>
+      <c r="I8" s="12">
+        <f t="shared" ref="I8:N8" si="3">+I5-I6-I7</f>
         <v>0</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
-      <c r="AY8" s="3"/>
-      <c r="AZ8" s="3"/>
-      <c r="BA8" s="3"/>
-      <c r="BB8" s="3"/>
-      <c r="BC8" s="3"/>
-      <c r="BD8" s="3"/>
-      <c r="BE8" s="3"/>
-      <c r="BF8" s="3"/>
-      <c r="BG8" s="3"/>
-      <c r="BH8" s="3"/>
-      <c r="BI8" s="3"/>
-      <c r="BJ8" s="3"/>
-      <c r="BK8" s="3"/>
-      <c r="BL8" s="3"/>
-      <c r="BM8" s="3"/>
-      <c r="BN8" s="3"/>
-      <c r="BO8" s="3"/>
-      <c r="BP8" s="3"/>
-      <c r="BQ8" s="3"/>
-      <c r="BR8" s="3"/>
-      <c r="BS8" s="3"/>
-      <c r="BT8" s="3"/>
-      <c r="BU8" s="3"/>
-      <c r="BV8" s="3"/>
-    </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="K8" s="12">
+        <f t="shared" si="3"/>
+        <v>83438.329999999987</v>
+      </c>
+      <c r="L8" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="12">
+        <v>19117.09</v>
+      </c>
+      <c r="G9" s="12">
+        <v>-4736.3100000000004</v>
+      </c>
+      <c r="H9" s="12">
+        <v>9252.8799999999992</v>
+      </c>
+      <c r="K9" s="12">
+        <v>4112.58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3">
-        <v>19117.09</v>
+      <c r="D10" s="12">
+        <v>20125.53</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3">
-        <v>9252.8799999999992</v>
+      <c r="G10" s="12">
+        <v>20874.21</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-      <c r="AQ9" s="3"/>
-      <c r="AR9" s="3"/>
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="3"/>
-      <c r="AU9" s="3"/>
-      <c r="AV9" s="3"/>
-      <c r="AW9" s="3"/>
-      <c r="AX9" s="3"/>
-      <c r="AY9" s="3"/>
-      <c r="AZ9" s="3"/>
-      <c r="BA9" s="3"/>
-      <c r="BB9" s="3"/>
-      <c r="BC9" s="3"/>
-      <c r="BD9" s="3"/>
-      <c r="BE9" s="3"/>
-      <c r="BF9" s="3"/>
-      <c r="BG9" s="3"/>
-      <c r="BH9" s="3"/>
-      <c r="BI9" s="3"/>
-      <c r="BJ9" s="3"/>
-      <c r="BK9" s="3"/>
-      <c r="BL9" s="3"/>
-      <c r="BM9" s="3"/>
-      <c r="BN9" s="3"/>
-      <c r="BO9" s="3"/>
-      <c r="BP9" s="3"/>
-      <c r="BQ9" s="3"/>
-      <c r="BR9" s="3"/>
-      <c r="BS9" s="3"/>
-      <c r="BT9" s="3"/>
-      <c r="BU9" s="3"/>
-      <c r="BV9" s="3"/>
-    </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+      <c r="H10" s="12">
+        <v>20525.59</v>
+      </c>
+      <c r="K10" s="12">
+        <v>23377.43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3">
-        <v>20125.53</v>
+      <c r="D11" s="12">
+        <v>2209.58</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3">
-        <v>20525.59</v>
+      <c r="G11" s="12">
+        <v>2485.5500000000002</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
-      <c r="AU10" s="3"/>
-      <c r="AV10" s="3"/>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
-      <c r="AY10" s="3"/>
-      <c r="AZ10" s="3"/>
-      <c r="BA10" s="3"/>
-      <c r="BB10" s="3"/>
-      <c r="BC10" s="3"/>
-      <c r="BD10" s="3"/>
-      <c r="BE10" s="3"/>
-      <c r="BF10" s="3"/>
-      <c r="BG10" s="3"/>
-      <c r="BH10" s="3"/>
-      <c r="BI10" s="3"/>
-      <c r="BJ10" s="3"/>
-      <c r="BK10" s="3"/>
-      <c r="BL10" s="3"/>
-      <c r="BM10" s="3"/>
-      <c r="BN10" s="3"/>
-      <c r="BO10" s="3"/>
-      <c r="BP10" s="3"/>
-      <c r="BQ10" s="3"/>
-      <c r="BR10" s="3"/>
-      <c r="BS10" s="3"/>
-      <c r="BT10" s="3"/>
-      <c r="BU10" s="3"/>
-      <c r="BV10" s="3"/>
-    </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
+      <c r="H11" s="12">
+        <v>2261.96</v>
+      </c>
+      <c r="K11" s="12">
+        <v>2662.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
-        <v>2209.58</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3">
-        <v>2261.96</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="3"/>
-      <c r="AR11" s="3"/>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="3"/>
-      <c r="AU11" s="3"/>
-      <c r="AV11" s="3"/>
-      <c r="AW11" s="3"/>
-      <c r="AX11" s="3"/>
-      <c r="AY11" s="3"/>
-      <c r="AZ11" s="3"/>
-      <c r="BA11" s="3"/>
-      <c r="BB11" s="3"/>
-      <c r="BC11" s="3"/>
-      <c r="BD11" s="3"/>
-      <c r="BE11" s="3"/>
-      <c r="BF11" s="3"/>
-      <c r="BG11" s="3"/>
-      <c r="BH11" s="3"/>
-      <c r="BI11" s="3"/>
-      <c r="BJ11" s="3"/>
-      <c r="BK11" s="3"/>
-      <c r="BL11" s="3"/>
-      <c r="BM11" s="3"/>
-      <c r="BN11" s="3"/>
-      <c r="BO11" s="3"/>
-      <c r="BP11" s="3"/>
-      <c r="BQ11" s="3"/>
-      <c r="BR11" s="3"/>
-      <c r="BS11" s="3"/>
-      <c r="BT11" s="3"/>
-      <c r="BU11" s="3"/>
-      <c r="BV11" s="3"/>
-    </row>
-    <row r="12" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="C12" s="12">
         <f t="shared" ref="C12:G12" si="4">+C8-SUM(C9:C11)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="12">
         <f t="shared" si="4"/>
         <v>48130.81</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>45540.060000000012</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="12">
         <f>+H8-SUM(H9:H11)</f>
         <v>49064.419999999976</v>
       </c>
-      <c r="I12" s="3">
-        <f t="shared" ref="I12:J12" si="5">+I8-SUM(I9:I11)</f>
+      <c r="I12" s="12">
+        <f t="shared" ref="I12:N12" si="5">+I8-SUM(I9:I11)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
-      <c r="AU12" s="3"/>
-      <c r="AV12" s="3"/>
-      <c r="AW12" s="3"/>
-      <c r="AX12" s="3"/>
-      <c r="AY12" s="3"/>
-      <c r="AZ12" s="3"/>
-      <c r="BA12" s="3"/>
-      <c r="BB12" s="3"/>
-      <c r="BC12" s="3"/>
-      <c r="BD12" s="3"/>
-      <c r="BE12" s="3"/>
-      <c r="BF12" s="3"/>
-      <c r="BG12" s="3"/>
-      <c r="BH12" s="3"/>
-      <c r="BI12" s="3"/>
-      <c r="BJ12" s="3"/>
-      <c r="BK12" s="3"/>
-      <c r="BL12" s="3"/>
-      <c r="BM12" s="3"/>
-      <c r="BN12" s="3"/>
-      <c r="BO12" s="3"/>
-      <c r="BP12" s="3"/>
-      <c r="BQ12" s="3"/>
-      <c r="BR12" s="3"/>
-      <c r="BS12" s="3"/>
-      <c r="BT12" s="3"/>
-      <c r="BU12" s="3"/>
-      <c r="BV12" s="3"/>
-    </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="K12" s="12">
+        <f t="shared" si="5"/>
+        <v>53285.939999999988</v>
+      </c>
+      <c r="L12" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="12">
+        <v>1168.94</v>
+      </c>
+      <c r="G13" s="12">
+        <v>1183.07</v>
+      </c>
+      <c r="H13" s="12">
+        <v>1091.98</v>
+      </c>
+      <c r="K13" s="12">
+        <v>1265.97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3">
-        <v>1168.94</v>
+      <c r="D14" s="12">
+        <v>24715.59</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3">
-        <v>1091.98</v>
+      <c r="G14" s="12">
+        <v>22489.22</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="3"/>
-      <c r="AS13" s="3"/>
-      <c r="AT13" s="3"/>
-      <c r="AU13" s="3"/>
-      <c r="AV13" s="3"/>
-      <c r="AW13" s="3"/>
-      <c r="AX13" s="3"/>
-      <c r="AY13" s="3"/>
-      <c r="AZ13" s="3"/>
-      <c r="BA13" s="3"/>
-      <c r="BB13" s="3"/>
-      <c r="BC13" s="3"/>
-      <c r="BD13" s="3"/>
-      <c r="BE13" s="3"/>
-      <c r="BF13" s="3"/>
-      <c r="BG13" s="3"/>
-      <c r="BH13" s="3"/>
-      <c r="BI13" s="3"/>
-      <c r="BJ13" s="3"/>
-      <c r="BK13" s="3"/>
-      <c r="BL13" s="3"/>
-      <c r="BM13" s="3"/>
-      <c r="BN13" s="3"/>
-      <c r="BO13" s="3"/>
-      <c r="BP13" s="3"/>
-      <c r="BQ13" s="3"/>
-      <c r="BR13" s="3"/>
-      <c r="BS13" s="3"/>
-      <c r="BT13" s="3"/>
-      <c r="BU13" s="3"/>
-      <c r="BV13" s="3"/>
-    </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+      <c r="H14" s="12">
+        <v>21725.18</v>
+      </c>
+      <c r="K14" s="12">
+        <v>24998.53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3">
-        <v>24715.59</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3">
-        <v>21725.18</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
-      <c r="AQ14" s="3"/>
-      <c r="AR14" s="3"/>
-      <c r="AS14" s="3"/>
-      <c r="AT14" s="3"/>
-      <c r="AU14" s="3"/>
-      <c r="AV14" s="3"/>
-      <c r="AW14" s="3"/>
-      <c r="AX14" s="3"/>
-      <c r="AY14" s="3"/>
-      <c r="AZ14" s="3"/>
-      <c r="BA14" s="3"/>
-      <c r="BB14" s="3"/>
-      <c r="BC14" s="3"/>
-      <c r="BD14" s="3"/>
-      <c r="BE14" s="3"/>
-      <c r="BF14" s="3"/>
-      <c r="BG14" s="3"/>
-      <c r="BH14" s="3"/>
-      <c r="BI14" s="3"/>
-      <c r="BJ14" s="3"/>
-      <c r="BK14" s="3"/>
-      <c r="BL14" s="3"/>
-      <c r="BM14" s="3"/>
-      <c r="BN14" s="3"/>
-      <c r="BO14" s="3"/>
-      <c r="BP14" s="3"/>
-      <c r="BQ14" s="3"/>
-      <c r="BR14" s="3"/>
-      <c r="BS14" s="3"/>
-      <c r="BT14" s="3"/>
-      <c r="BU14" s="3"/>
-      <c r="BV14" s="3"/>
-    </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="C15" s="12">
         <f t="shared" ref="C15:G15" si="6">+C12-C13-C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="12">
         <f t="shared" si="6"/>
         <v>22246.279999999995</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="12">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>21867.770000000011</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="12">
         <f>+H12-H13-H14</f>
         <v>26247.259999999973</v>
       </c>
-      <c r="I15" s="3">
-        <f t="shared" ref="I15:J15" si="7">+I12-I13-I14</f>
+      <c r="I15" s="12">
+        <f t="shared" ref="I15:N15" si="7">+I12-I13-I14</f>
         <v>0</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="3"/>
-      <c r="AP15" s="3"/>
-      <c r="AQ15" s="3"/>
-      <c r="AR15" s="3"/>
-      <c r="AS15" s="3"/>
-      <c r="AT15" s="3"/>
-      <c r="AU15" s="3"/>
-      <c r="AV15" s="3"/>
-      <c r="AW15" s="3"/>
-      <c r="AX15" s="3"/>
-      <c r="AY15" s="3"/>
-      <c r="AZ15" s="3"/>
-      <c r="BA15" s="3"/>
-      <c r="BB15" s="3"/>
-      <c r="BC15" s="3"/>
-      <c r="BD15" s="3"/>
-      <c r="BE15" s="3"/>
-      <c r="BF15" s="3"/>
-      <c r="BG15" s="3"/>
-      <c r="BH15" s="3"/>
-      <c r="BI15" s="3"/>
-      <c r="BJ15" s="3"/>
-      <c r="BK15" s="3"/>
-      <c r="BL15" s="3"/>
-      <c r="BM15" s="3"/>
-      <c r="BN15" s="3"/>
-      <c r="BO15" s="3"/>
-      <c r="BP15" s="3"/>
-      <c r="BQ15" s="3"/>
-      <c r="BR15" s="3"/>
-      <c r="BS15" s="3"/>
-      <c r="BT15" s="3"/>
-      <c r="BU15" s="3"/>
-      <c r="BV15" s="3"/>
-    </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="K15" s="12">
+        <f t="shared" si="7"/>
+        <v>27021.439999999988</v>
+      </c>
+      <c r="L15" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3">
+      <c r="D16" s="12">
         <v>5724.02</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3">
+      <c r="G16" s="12">
+        <v>5467.27</v>
+      </c>
+      <c r="H16" s="12">
         <v>6721.33</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
-      <c r="AK16" s="3"/>
-      <c r="AL16" s="3"/>
-      <c r="AM16" s="3"/>
-      <c r="AN16" s="3"/>
-      <c r="AO16" s="3"/>
-      <c r="AP16" s="3"/>
-      <c r="AQ16" s="3"/>
-      <c r="AR16" s="3"/>
-      <c r="AS16" s="3"/>
-      <c r="AT16" s="3"/>
-      <c r="AU16" s="3"/>
-      <c r="AV16" s="3"/>
-      <c r="AW16" s="3"/>
-      <c r="AX16" s="3"/>
-      <c r="AY16" s="3"/>
-      <c r="AZ16" s="3"/>
-      <c r="BA16" s="3"/>
-      <c r="BB16" s="3"/>
-      <c r="BC16" s="3"/>
-      <c r="BD16" s="3"/>
-      <c r="BE16" s="3"/>
-      <c r="BF16" s="3"/>
-      <c r="BG16" s="3"/>
-      <c r="BH16" s="3"/>
-      <c r="BI16" s="3"/>
-      <c r="BJ16" s="3"/>
-      <c r="BK16" s="3"/>
-      <c r="BL16" s="3"/>
-      <c r="BM16" s="3"/>
-      <c r="BN16" s="3"/>
-      <c r="BO16" s="3"/>
-      <c r="BP16" s="3"/>
-      <c r="BQ16" s="3"/>
-      <c r="BR16" s="3"/>
-      <c r="BS16" s="3"/>
-      <c r="BT16" s="3"/>
-      <c r="BU16" s="3"/>
-      <c r="BV16" s="3"/>
-    </row>
-    <row r="17" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="K16" s="12">
+        <v>6941.81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:74" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="12">
         <f t="shared" ref="C17:G17" si="8">+C15-C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="12">
         <f t="shared" si="8"/>
         <v>16522.259999999995</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="12">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="12">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="12">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>16400.500000000011</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="12">
         <f>+H15-H16</f>
         <v>19525.929999999971</v>
       </c>
-      <c r="I17" s="3">
-        <f t="shared" ref="I17:J17" si="9">+I15-I16</f>
+      <c r="I17" s="12">
+        <f t="shared" ref="I17:N17" si="9">+I15-I16</f>
         <v>0</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
-      <c r="AP17" s="3"/>
-      <c r="AQ17" s="3"/>
-      <c r="AR17" s="3"/>
-      <c r="AS17" s="3"/>
-      <c r="AT17" s="3"/>
-      <c r="AU17" s="3"/>
-      <c r="AV17" s="3"/>
-      <c r="AW17" s="3"/>
-      <c r="AX17" s="3"/>
-      <c r="AY17" s="3"/>
-      <c r="AZ17" s="3"/>
-      <c r="BA17" s="3"/>
-      <c r="BB17" s="3"/>
-      <c r="BC17" s="3"/>
-      <c r="BD17" s="3"/>
-      <c r="BE17" s="3"/>
-      <c r="BF17" s="3"/>
-      <c r="BG17" s="3"/>
-      <c r="BH17" s="3"/>
-      <c r="BI17" s="3"/>
-      <c r="BJ17" s="3"/>
-      <c r="BK17" s="3"/>
-      <c r="BL17" s="3"/>
-      <c r="BM17" s="3"/>
-      <c r="BN17" s="3"/>
-      <c r="BO17" s="3"/>
-      <c r="BP17" s="3"/>
-      <c r="BQ17" s="3"/>
-      <c r="BR17" s="3"/>
-      <c r="BS17" s="3"/>
-      <c r="BT17" s="3"/>
-      <c r="BU17" s="3"/>
-      <c r="BV17" s="3"/>
-    </row>
-    <row r="18" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="K17" s="12">
+        <f t="shared" si="9"/>
+        <v>20079.629999999986</v>
+      </c>
+      <c r="L17" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:74" x14ac:dyDescent="0.2">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -2136,46 +1306,58 @@
       <c r="BU18" s="3"/>
       <c r="BV18" s="3"/>
     </row>
-    <row r="19" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
-      <c r="C19" s="11" t="e">
+      <c r="C19" s="10" t="e">
         <f t="shared" ref="C19:G19" si="10">+C17/C20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <f t="shared" si="10"/>
         <v>1481.2989178672926</v>
       </c>
-      <c r="E19" s="11" t="e">
+      <c r="E19" s="10" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F19" s="11" t="e">
+      <c r="F19" s="10" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="11" t="e">
+      <c r="G19" s="10" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="10">
         <f>+H17/H20</f>
         <v>1750.592169555041</v>
       </c>
-      <c r="I19" s="11" t="e">
-        <f t="shared" ref="I19:J19" si="11">+I17/I20</f>
+      <c r="I19" s="10" t="e">
+        <f t="shared" ref="I19:N19" si="11">+I17/I20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J19" s="11" t="e">
+      <c r="J19" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="K19" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -2237,22 +1419,22 @@
       <c r="BU19" s="3"/>
       <c r="BV19" s="3"/>
     </row>
-    <row r="20" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10">
         <v>11.1539</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11">
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10">
         <v>11.1539</v>
       </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -2318,7 +1500,7 @@
       <c r="BU20" s="3"/>
       <c r="BV20" s="3"/>
     </row>
-    <row r="21" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:74" x14ac:dyDescent="0.2">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -2392,7 +1574,7 @@
       <c r="BU21" s="3"/>
       <c r="BV21" s="3"/>
     </row>
-    <row r="22" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:74" x14ac:dyDescent="0.2">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -2466,7 +1648,7 @@
       <c r="BU22" s="3"/>
       <c r="BV22" s="3"/>
     </row>
-    <row r="23" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:74" x14ac:dyDescent="0.2">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -2540,7 +1722,7 @@
       <c r="BU23" s="3"/>
       <c r="BV23" s="3"/>
     </row>
-    <row r="24" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:74" x14ac:dyDescent="0.2">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -2614,7 +1796,7 @@
       <c r="BU24" s="3"/>
       <c r="BV24" s="3"/>
     </row>
-    <row r="25" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:74" x14ac:dyDescent="0.2">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -2688,7 +1870,7 @@
       <c r="BU25" s="3"/>
       <c r="BV25" s="3"/>
     </row>
-    <row r="26" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:74" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -2762,7 +1944,7 @@
       <c r="BU26" s="3"/>
       <c r="BV26" s="3"/>
     </row>
-    <row r="27" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:74" x14ac:dyDescent="0.2">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -2836,7 +2018,7 @@
       <c r="BU27" s="3"/>
       <c r="BV27" s="3"/>
     </row>
-    <row r="28" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:74" x14ac:dyDescent="0.2">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -2910,7 +2092,7 @@
       <c r="BU28" s="3"/>
       <c r="BV28" s="3"/>
     </row>
-    <row r="29" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:74" x14ac:dyDescent="0.2">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -2984,7 +2166,7 @@
       <c r="BU29" s="3"/>
       <c r="BV29" s="3"/>
     </row>
-    <row r="30" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:74" x14ac:dyDescent="0.2">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -3058,7 +2240,7 @@
       <c r="BU30" s="3"/>
       <c r="BV30" s="3"/>
     </row>
-    <row r="31" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:74" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -3132,7 +2314,7 @@
       <c r="BU31" s="3"/>
       <c r="BV31" s="3"/>
     </row>
-    <row r="32" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:74" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -41022,7 +40204,7 @@
     </row>
     <row r="544" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B544" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C544" s="3"/>
       <c r="D544" s="3"/>
